--- a/Data/EC/NIT-9001396708.xlsx
+++ b/Data/EC/NIT-9001396708.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A517E02-E22F-4CE7-9B23-9DDA08EAB6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A6044D5-6BB1-45F8-9AD4-48048AFDEF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5D1FAF20-0948-470C-8134-E032E0FC01CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3EB79E6B-330F-4419-8882-62D567171F41}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,97 +71,97 @@
     <t>AID DIAZ NAVARRO</t>
   </si>
   <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -260,7 +260,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -273,9 +275,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,23 +475,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,10 +519,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0755C6B-D3E8-52E9-AFB3-3935B62FD8F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7E97C2-B7DF-2A62-744A-7E86E2ADAE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE392D39-4915-4676-A2D5-667655A2FEAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0DD1B2-05F2-4C53-876D-95F1280897BB}">
   <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1104,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24999</v>
+        <v>29960</v>
       </c>
       <c r="G16" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1130,7 +1130,7 @@
         <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1153,7 +1153,7 @@
         <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1176,7 +1176,7 @@
         <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1199,7 +1199,7 @@
         <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1222,7 +1222,7 @@
         <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1245,7 +1245,7 @@
         <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1268,7 +1268,7 @@
         <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1291,7 +1291,7 @@
         <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1314,7 +1314,7 @@
         <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1337,7 +1337,7 @@
         <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1360,7 +1360,7 @@
         <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1383,7 +1383,7 @@
         <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1406,7 +1406,7 @@
         <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1429,7 +1429,7 @@
         <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1452,7 +1452,7 @@
         <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1475,7 +1475,7 @@
         <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1498,7 +1498,7 @@
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1521,7 +1521,7 @@
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1544,7 +1544,7 @@
         <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1567,7 +1567,7 @@
         <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1590,7 +1590,7 @@
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1613,7 +1613,7 @@
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1636,7 +1636,7 @@
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1659,7 +1659,7 @@
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1682,7 +1682,7 @@
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1705,7 +1705,7 @@
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1728,7 +1728,7 @@
         <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1751,7 +1751,7 @@
         <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1774,7 +1774,7 @@
         <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1794,10 +1794,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="24">
-        <v>29960</v>
+        <v>24999</v>
       </c>
       <c r="G46" s="24">
-        <v>749000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
